--- a/jpcore-r4/feature/swg3-practionerRole対応/ValueSet-jp-procedure-not-performed-reason-vs.xlsx
+++ b/jpcore-r4/feature/swg3-practionerRole対応/ValueSet-jp-procedure-not-performed-reason-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T13:52:43+00:00</t>
+    <t>2022-08-03T11:17:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Situation codes describing the reason that a procedure, which might otherwise be expected, was not performed, or a procedure that was started and was not completed.</t>
+    <t>処置が実施されなかった理由、または開始された処置が完了しなかった理由を示すコード</t>
   </si>
   <si>
     <t>Purpose</t>
